--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409E403-91EA-48F1-A79F-2BFB227188BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -22,24 +22,12 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -821,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1202,6 +1190,36 @@
   </si>
   <si>
     <t>PLN / GJ Activity</t>
+  </si>
+  <si>
+    <t>GAS_NAT</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>ELE_EX_DOLNA_ODRA</t>
+  </si>
+  <si>
+    <t>Dolna Odra Power Plant</t>
+  </si>
+  <si>
+    <t>ELE_MIN_GAS_NAT</t>
+  </si>
+  <si>
+    <t>Natural Gas Mine</t>
+  </si>
+  <si>
+    <t>ELE_MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind mine</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1231,7 @@
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1596,6 +1614,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2437,7 +2462,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2519,16 +2544,10 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2693,6 +2712,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -2969,7 +3015,6 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -2977,6 +3022,7 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3056,7 +3102,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3179,6 +3225,57 @@
       <sheetData sheetId="56"/>
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SEC_Comm"/>
+      <sheetName val="SEC_Processes"/>
+      <sheetName val="MIN_IMP"/>
+      <sheetName val="PP"/>
+      <sheetName val="DMD"/>
+      <sheetName val="EMI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>GAS_NAT</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>WIND_ON</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>ELE_MIN_GAS_NAT</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Natural Gas Mine</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11" t="str">
+            <v>ELE_MIN_WIND_ON</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Wind mine</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3535,8 +3632,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3567,37 +3664,37 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="115" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="104"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="104"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
@@ -3622,11 +3719,11 @@
       <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="34" t="s">
         <v>36</v>
       </c>
@@ -3651,11 +3748,11 @@
       <c r="I6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="104"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
@@ -3665,137 +3762,157 @@
       <c r="D7" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="121"/>
+      <c r="G9" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="125"/>
+      <c r="G10" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="116"/>
+      <c r="C15" s="114"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="94" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="95" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="96" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="95" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="97" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3817,7 +3934,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B9" sqref="B9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3847,69 +3964,69 @@
         <v>10</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="47" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3921,7 +4038,7 @@
       <c r="D7" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="108" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="35" t="s">
@@ -3933,157 +4050,193 @@
       <c r="H7" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="123"/>
+      <c r="D10" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="B11" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="52" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="52" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="52" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="52" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4100,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4255,15 +4408,15 @@
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="110" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="14"/>
@@ -4299,17 +4452,41 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="122" t="str">
+        <f>[2]SEC_Processes!D10</f>
+        <v>ELE_MIN_GAS_NAT</v>
+      </c>
+      <c r="C9" s="124" t="str">
+        <f>[2]SEC_Processes!E10</f>
+        <v>Natural Gas Mine</v>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f>[2]SEC_Comm!C9</f>
+        <v>GAS_NAT</v>
+      </c>
+      <c r="E9" s="23">
+        <v>200</v>
+      </c>
+      <c r="F9" s="22">
+        <v>800</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="str">
+        <f>[2]SEC_Processes!D11</f>
+        <v>ELE_MIN_WIND_ON</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f>[2]SEC_Processes!E11</f>
+        <v>Wind mine</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f>[2]SEC_Comm!C10</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E10" s="84">
+        <v>1E-3</v>
+      </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
@@ -4360,69 +4537,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="81" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4439,104 +4616,104 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="114" t="s">
+      <c r="J6" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="112" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="26.25" thickBot="1">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="115" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="115" t="s">
+      <c r="J7" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="113" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="60" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="62" t="str">
+      <c r="C8" s="60" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="D8" s="83" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="85" t="str">
+      <c r="E8" s="83" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="84">
         <v>6.5</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="84">
         <v>0.3</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="85">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="85">
         <v>1</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="85">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="113"/>
+      <c r="E14" s="111"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="113"/>
+      <c r="E15" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4560,68 +4737,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="81" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4638,76 +4815,76 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="82" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="87"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="58" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="92">
         <v>2020</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="92">
         <v>2021</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="93">
         <v>2025</v>
       </c>
     </row>
@@ -4715,28 +4892,28 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="62" t="str">
+      <c r="B18" s="60" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="83">
         <v>200</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4762,46 +4939,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="H5" s="54" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="H5" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4812,46 +4989,46 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4862,9 +5039,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5012,15 +5192,38 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5034,16 +5237,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409E403-91EA-48F1-A79F-2BFB227188BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE62CC2-03B5-4DF9-9D7F-1B8BD185A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -22,12 +22,11 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2701,6 +2700,33 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2712,33 +2738,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="60" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3230,57 +3229,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SEC_Comm"/>
-      <sheetName val="SEC_Processes"/>
-      <sheetName val="MIN_IMP"/>
-      <sheetName val="PP"/>
-      <sheetName val="DMD"/>
-      <sheetName val="EMI"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>GAS_NAT</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>WIND_ON</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>ELE_MIN_GAS_NAT</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Natural Gas Mine</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>ELE_MIN_WIND_ON</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Wind mine</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3633,7 +3581,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3674,7 +3622,7 @@
       <c r="H3" s="100"/>
       <c r="I3" s="100"/>
       <c r="J3" s="101"/>
-      <c r="K3" s="115" t="s">
+      <c r="K3" s="124" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3691,7 +3639,7 @@
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
       <c r="J4" s="104"/>
-      <c r="K4" s="115"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="102"/>
@@ -3720,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="104"/>
-      <c r="K5" s="115"/>
+      <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
@@ -3749,7 +3697,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="104"/>
-      <c r="K6" s="115"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="102"/>
@@ -3772,7 +3720,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="104"/>
-      <c r="K7" s="115"/>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="102"/>
@@ -3795,53 +3743,53 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="115"/>
+      <c r="K8" s="124"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="102"/>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="118" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="114" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="104"/>
-      <c r="K9" s="115"/>
+      <c r="K9" s="124"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="102"/>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="125"/>
-      <c r="G10" s="122" t="s">
+      <c r="F10" s="121"/>
+      <c r="G10" s="118" t="s">
         <v>104</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="104"/>
-      <c r="K10" s="115"/>
+      <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="102"/>
@@ -3854,7 +3802,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="104"/>
-      <c r="K11" s="115"/>
+      <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="105"/>
@@ -3867,14 +3815,14 @@
       <c r="H12" s="106"/>
       <c r="I12" s="106"/>
       <c r="J12" s="107"/>
-      <c r="K12" s="115"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="114"/>
+      <c r="C15" s="123"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="94" t="s">
@@ -3934,7 +3882,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4077,69 +4025,69 @@
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="118" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H9" s="114" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="122" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="118" t="s">
         <v>104</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="118" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="118" t="s">
         <v>104</v>
       </c>
       <c r="I11" s="37"/>
@@ -4253,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F10"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4452,17 +4400,17 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="122" t="str">
-        <f>[2]SEC_Processes!D10</f>
+      <c r="B9" s="118" t="str">
+        <f>SEC_Processes!D10</f>
         <v>ELE_MIN_GAS_NAT</v>
       </c>
-      <c r="C9" s="124" t="str">
-        <f>[2]SEC_Processes!E10</f>
+      <c r="C9" s="120" t="str">
+        <f>SEC_Processes!E10</f>
         <v>Natural Gas Mine</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>[2]SEC_Comm!C9</f>
-        <v>GAS_NAT</v>
+        <f>SEC_Comm!D9</f>
+        <v>Natural Gas</v>
       </c>
       <c r="E9" s="23">
         <v>200</v>
@@ -4473,16 +4421,16 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="B10" s="15" t="str">
-        <f>[2]SEC_Processes!D11</f>
+        <f>SEC_Processes!D11</f>
         <v>ELE_MIN_WIND_ON</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f>[2]SEC_Processes!E11</f>
+        <f>SEC_Processes!E11</f>
         <v>Wind mine</v>
       </c>
       <c r="D10" s="19" t="str">
-        <f>[2]SEC_Comm!C10</f>
-        <v>WIND_ON</v>
+        <f>SEC_Comm!D10</f>
+        <v>Wind Onshore</v>
       </c>
       <c r="E10" s="84">
         <v>1E-3</v>
@@ -4522,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4892,11 +4840,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="60" t="str">
@@ -4989,11 +4937,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="117" t="s">
+      <c r="D6" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="60"/>
@@ -5039,12 +4987,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5192,15 +5137,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5224,17 +5180,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE62CC2-03B5-4DF9-9D7F-1B8BD185A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F004484-E550-4B77-B716-F9E6B0A94BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1219,6 +1219,18 @@
   </si>
   <si>
     <t>Wind mine</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>Max output</t>
+  </si>
+  <si>
+    <t>limited output</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="60">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1613,13 +1625,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2461,7 +2466,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2724,9 +2729,6 @@
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="60" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2739,6 +2741,9 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3622,7 +3627,7 @@
       <c r="H3" s="100"/>
       <c r="I3" s="100"/>
       <c r="J3" s="101"/>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="123" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3639,7 +3644,7 @@
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
       <c r="J4" s="104"/>
-      <c r="K4" s="124"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="102"/>
@@ -3668,7 +3673,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="104"/>
-      <c r="K5" s="124"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
@@ -3697,7 +3702,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="104"/>
-      <c r="K6" s="124"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="102"/>
@@ -3720,7 +3725,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="104"/>
-      <c r="K7" s="124"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="102"/>
@@ -3743,7 +3748,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="104"/>
-      <c r="K8" s="124"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="102"/>
@@ -3766,7 +3771,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="104"/>
-      <c r="K9" s="124"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="102"/>
@@ -3789,7 +3794,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="104"/>
-      <c r="K10" s="124"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="102"/>
@@ -3802,7 +3807,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="104"/>
-      <c r="K11" s="124"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="105"/>
@@ -3815,14 +3820,14 @@
       <c r="H12" s="106"/>
       <c r="I12" s="106"/>
       <c r="J12" s="107"/>
-      <c r="K12" s="124"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="94" t="s">
@@ -3882,7 +3887,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4071,7 +4076,7 @@
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="114" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="115"/>
@@ -4094,13 +4099,25 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="48"/>
+      <c r="B12" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="D12" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="114" t="s">
+        <v>105</v>
+      </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
     </row>
@@ -4202,7 +4219,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4470,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4646,19 +4663,94 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
+      <c r="B9" s="86" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>ELE_EX_DOLNA_ODRA</v>
+      </c>
+      <c r="C9" s="86" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Dolna Odra Power Plant</v>
+      </c>
+      <c r="D9" s="87" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>GAS_NAT</v>
+      </c>
+      <c r="E9" s="87" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="88">
+        <v>1.7</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="85">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="89">
+        <v>1</v>
+      </c>
+      <c r="J9" s="90">
+        <v>1</v>
+      </c>
+      <c r="K9" s="90">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B10" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C10" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>Wind Turbine Onshore</v>
+      </c>
+      <c r="D10" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E10" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F10">
+        <v>1.345</v>
+      </c>
+      <c r="G10" s="127">
+        <v>1</v>
+      </c>
+      <c r="H10" s="85">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.33</v>
+      </c>
+      <c r="J10" s="90">
+        <v>1</v>
+      </c>
+      <c r="K10" s="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="E13" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13">
+        <f>F10*H10</f>
+        <v>42.41592</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="111"/>
+      <c r="E14" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <f>F13*I10</f>
+        <v>13.997253600000001</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="111"/>
@@ -4840,11 +4932,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="60" t="str">
@@ -4937,11 +5029,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="60"/>
@@ -4987,9 +5079,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5137,26 +5232,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5180,9 +5264,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F004484-E550-4B77-B716-F9E6B0A94BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF69BD-3D39-4449-842F-A783917A6049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -3586,7 +3586,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3887,7 +3887,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4218,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4426,8 +4426,8 @@
         <v>Natural Gas Mine</v>
       </c>
       <c r="D9" s="21" t="str">
-        <f>SEC_Comm!D9</f>
-        <v>Natural Gas</v>
+        <f>SEC_Comm!C9</f>
+        <v>GAS_NAT</v>
       </c>
       <c r="E9" s="23">
         <v>200</v>
@@ -4446,8 +4446,8 @@
         <v>Wind mine</v>
       </c>
       <c r="D10" s="19" t="str">
-        <f>SEC_Comm!D10</f>
-        <v>Wind Onshore</v>
+        <f>SEC_Comm!C10</f>
+        <v>WIND_ON</v>
       </c>
       <c r="E10" s="84">
         <v>1E-3</v>
@@ -4487,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF69BD-3D39-4449-842F-A783917A6049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF94B0A-B739-4317-9DB8-170E6AA21D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1231,6 +1231,24 @@
   </si>
   <si>
     <t>limited output</t>
+  </si>
+  <si>
+    <t>SOLAR_PV</t>
+  </si>
+  <si>
+    <t>Solar Pv</t>
+  </si>
+  <si>
+    <t>ELE_EX_SOLAR_PV</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>ELE_MIN_SOLAR_PV</t>
+  </si>
+  <si>
+    <t>Solar PV Mine</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2484,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2554,9 +2572,6 @@
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,6 +2759,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3586,7 +3605,7 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3617,37 +3636,37 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="123" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="122" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="102"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="123"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="102"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
@@ -3672,11 +3691,11 @@
       <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="123"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="122"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="34" t="s">
         <v>36</v>
       </c>
@@ -3701,11 +3720,11 @@
       <c r="I6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="123"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="102"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
@@ -3715,7 +3734,7 @@
       <c r="D7" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="37"/>
@@ -3724,11 +3743,11 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="123"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="102"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="38" t="s">
         <v>28</v>
       </c>
@@ -3738,7 +3757,7 @@
       <c r="D8" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="40"/>
@@ -3747,125 +3766,135 @@
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="123"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="114" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="114" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="113" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="123"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="122"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="118" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="118" t="s">
+      <c r="F10" s="120"/>
+      <c r="G10" s="117" t="s">
         <v>104</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="123"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="122"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="123"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="122"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="123"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="122"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="121"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="93" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="94" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="95" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="94" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="96" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3884,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3917,69 +3946,69 @@
         <v>10</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="46" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3991,7 +4020,7 @@
       <c r="D7" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="35" t="s">
@@ -4014,7 +4043,7 @@
       <c r="D8" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="108" t="s">
         <v>118</v>
       </c>
       <c r="F8" s="38" t="s">
@@ -4030,178 +4059,221 @@
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="114" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="114" t="s">
+      <c r="G9" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="113" t="s">
         <v>105</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="118" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="117" t="s">
         <v>104</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="114" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="117" t="s">
         <v>104</v>
       </c>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="52" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C13" s="129"/>
+      <c r="D13" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" thickBot="1">
+      <c r="B14" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="52" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="52" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C19" s="51" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="52" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="52" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="52" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E22" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="52" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C23" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="52" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E24" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="52" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4219,7 +4291,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4373,15 +4445,15 @@
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="109" t="s">
         <v>113</v>
       </c>
       <c r="G7" s="14"/>
@@ -4417,11 +4489,11 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="118" t="str">
+      <c r="B9" s="117" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_MIN_GAS_NAT</v>
       </c>
-      <c r="C9" s="120" t="str">
+      <c r="C9" s="119" t="str">
         <f>SEC_Processes!E10</f>
         <v>Natural Gas Mine</v>
       </c>
@@ -4449,16 +4521,27 @@
         <f>SEC_Comm!C10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="83">
         <v>1E-3</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="20" t="str">
+        <f>SEC_Processes!D14</f>
+        <v>ELE_MIN_SOLAR_PV</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f>SEC_Processes!E14</f>
+        <v>Solar PV Mine</v>
+      </c>
+      <c r="D11" s="21" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>SOLAR_PV</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1E-3</v>
+      </c>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
@@ -4488,7 +4571,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4502,69 +4585,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4581,120 +4664,120 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="112" t="s">
+      <c r="K6" s="111" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="26.25" thickBot="1">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="113" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="K7" s="113" t="s">
+      <c r="K7" s="112" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="60" t="str">
+      <c r="B8" s="59" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="60" t="str">
+      <c r="C8" s="59" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="83" t="str">
+      <c r="D8" s="82" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="83" t="str">
+      <c r="E8" s="82" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="83">
         <v>6.5</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="83">
         <v>0.3</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="84">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="84">
         <v>1</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="86" t="str">
+      <c r="B9" s="85" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_DOLNA_ODRA</v>
       </c>
-      <c r="C9" s="86" t="str">
+      <c r="C9" s="85" t="str">
         <f>SEC_Processes!E9</f>
         <v>Dolna Odra Power Plant</v>
       </c>
-      <c r="D9" s="87" t="str">
+      <c r="D9" s="86" t="str">
         <f>SEC_Comm!C9</f>
         <v>GAS_NAT</v>
       </c>
-      <c r="E9" s="87" t="str">
+      <c r="E9" s="86" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="87">
         <v>1.7</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="87">
         <v>0.35</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="84">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="88">
         <v>1</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="89">
         <v>1</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="89">
         <v>0.6</v>
       </c>
     </row>
@@ -4718,24 +4801,56 @@
       <c r="F10">
         <v>1.345</v>
       </c>
-      <c r="G10" s="127">
+      <c r="G10" s="126">
         <v>1</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="84">
         <v>31.536000000000001</v>
       </c>
       <c r="I10">
         <v>0.33</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="89">
         <v>1</v>
       </c>
-      <c r="K10" s="126">
+      <c r="K10" s="125">
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="2:12">
+      <c r="C11" t="str">
+        <f>SEC_Processes!E13</f>
+        <v>Solar PV</v>
+      </c>
+      <c r="D11" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>SOLAR_PV</v>
+      </c>
+      <c r="E11" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="84">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.27</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="2:12">
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>139</v>
       </c>
       <c r="F13">
@@ -4744,7 +4859,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="128" t="s">
+      <c r="E14" s="127" t="s">
         <v>140</v>
       </c>
       <c r="F14">
@@ -4753,7 +4868,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="111"/>
+      <c r="E15" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4777,68 +4892,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4855,76 +4970,76 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="81" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="85"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="91">
         <v>2020</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="91">
         <v>2021</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="92">
         <v>2025</v>
       </c>
     </row>
@@ -4932,28 +5047,28 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="60" t="str">
+      <c r="B18" s="59" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="82">
         <v>200</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="83"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4979,46 +5094,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="H5" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="51" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5029,46 +5144,46 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF94B0A-B739-4317-9DB8-170E6AA21D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3F9DE-330D-4A77-BE64-006A80F585AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1209,9 +1209,6 @@
     <t>Dolna Odra Power Plant</t>
   </si>
   <si>
-    <t>ELE_MIN_GAS_NAT</t>
-  </si>
-  <si>
     <t>Natural Gas Mine</t>
   </si>
   <si>
@@ -1245,10 +1242,13 @@
     <t>Solar PV</t>
   </si>
   <si>
-    <t>ELE_MIN_SOLAR_PV</t>
-  </si>
-  <si>
     <t>Solar PV Mine</t>
+  </si>
+  <si>
+    <t>MIN_EX_GAS_NAT</t>
+  </si>
+  <si>
+    <t>MIN_EX_SOLAR_PV</t>
   </si>
 </sst>
 </file>
@@ -3821,10 +3821,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>141</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>142</v>
       </c>
       <c r="E11" s="119" t="s">
         <v>103</v>
@@ -3916,7 +3916,7 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4087,10 +4087,10 @@
       </c>
       <c r="C10" s="118"/>
       <c r="D10" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="119" t="s">
         <v>133</v>
-      </c>
-      <c r="E10" s="119" t="s">
-        <v>134</v>
       </c>
       <c r="F10" s="117" t="s">
         <v>103</v>
@@ -4110,10 +4110,10 @@
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="115" t="s">
         <v>135</v>
-      </c>
-      <c r="E11" s="115" t="s">
-        <v>136</v>
       </c>
       <c r="F11" s="117" t="s">
         <v>103</v>
@@ -4133,10 +4133,10 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>137</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>138</v>
       </c>
       <c r="F12" s="117" t="s">
         <v>103</v>
@@ -4156,10 +4156,10 @@
       </c>
       <c r="C13" s="129"/>
       <c r="D13" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="130" t="s">
         <v>143</v>
-      </c>
-      <c r="E13" s="130" t="s">
-        <v>144</v>
       </c>
       <c r="F13" s="117" t="s">
         <v>103</v>
@@ -4178,10 +4178,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="117" t="s">
         <v>103</v>
@@ -4290,7 +4290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4491,7 +4491,7 @@
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="B9" s="117" t="str">
         <f>SEC_Processes!D10</f>
-        <v>ELE_MIN_GAS_NAT</v>
+        <v>MIN_EX_GAS_NAT</v>
       </c>
       <c r="C9" s="119" t="str">
         <f>SEC_Processes!E10</f>
@@ -4529,7 +4529,7 @@
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="B11" s="20" t="str">
         <f>SEC_Processes!D14</f>
-        <v>ELE_MIN_SOLAR_PV</v>
+        <v>MIN_EX_SOLAR_PV</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>SEC_Processes!E14</f>
@@ -4570,7 +4570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="E13" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13">
         <f>F10*H10</f>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14">
         <f>F13*I10</f>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3F9DE-330D-4A77-BE64-006A80F585AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702FC29-1367-4D4E-B468-F26A15AA262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1212,9 +1212,6 @@
     <t>Natural Gas Mine</t>
   </si>
   <si>
-    <t>ELE_MIN_WIND_ON</t>
-  </si>
-  <si>
     <t>Wind mine</t>
   </si>
   <si>
@@ -1249,6 +1246,9 @@
   </si>
   <si>
     <t>MIN_EX_SOLAR_PV</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND_ON</t>
   </si>
 </sst>
 </file>
@@ -3821,10 +3821,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>141</v>
       </c>
       <c r="E11" s="119" t="s">
         <v>103</v>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="C10" s="118"/>
       <c r="D10" s="117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="119" t="s">
         <v>133</v>
@@ -4110,10 +4110,10 @@
       </c>
       <c r="C11" s="114"/>
       <c r="D11" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="115" t="s">
         <v>134</v>
-      </c>
-      <c r="E11" s="115" t="s">
-        <v>135</v>
       </c>
       <c r="F11" s="117" t="s">
         <v>103</v>
@@ -4133,10 +4133,10 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>136</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>137</v>
       </c>
       <c r="F12" s="117" t="s">
         <v>103</v>
@@ -4156,10 +4156,10 @@
       </c>
       <c r="C13" s="129"/>
       <c r="D13" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="130" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="130" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="117" t="s">
         <v>103</v>
@@ -4178,10 +4178,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="117" t="s">
         <v>103</v>
@@ -4291,7 +4291,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4511,7 +4511,7 @@
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="B10" s="15" t="str">
         <f>SEC_Processes!D11</f>
-        <v>ELE_MIN_WIND_ON</v>
+        <v>MIN_EX_WIND_ON</v>
       </c>
       <c r="C10" s="15" t="str">
         <f>SEC_Processes!E11</f>
@@ -4570,7 +4570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="E13" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13">
         <f>F10*H10</f>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <f>F13*I10</f>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702FC29-1367-4D4E-B468-F26A15AA262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD2D550-AF55-4BE6-BE89-47F7A0D04803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -3915,7 +3915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4570,8 +4570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD2D550-AF55-4BE6-BE89-47F7A0D04803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD204533-45A9-4C1D-87F0-ECCCC2834E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -27,6 +27,19 @@
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2484,7 +2497,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2744,25 +2757,22 @@
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3125,7 +3135,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3604,26 +3614,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView zoomScale="107" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
+    <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="B2" s="28" t="s">
         <v>44</v>
       </c>
@@ -3646,11 +3656,11 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.45" customHeight="1">
+    <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
       <c r="A4" s="101"/>
       <c r="B4" s="32" t="s">
         <v>0</v>
@@ -3663,7 +3673,7 @@
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
-      <c r="K4" s="122"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="101"/>
@@ -3692,9 +3702,9 @@
         <v>8</v>
       </c>
       <c r="J5" s="103"/>
-      <c r="K5" s="122"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
+      <c r="K5" s="126"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
       <c r="A6" s="101"/>
       <c r="B6" s="34" t="s">
         <v>36</v>
@@ -3721,7 +3731,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="103"/>
-      <c r="K6" s="122"/>
+      <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="101"/>
@@ -3744,7 +3754,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="103"/>
-      <c r="K7" s="122"/>
+      <c r="K7" s="126"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="101"/>
@@ -3767,7 +3777,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="103"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="101"/>
@@ -3780,7 +3790,7 @@
       <c r="D9" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="116"/>
@@ -3790,7 +3800,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="103"/>
-      <c r="K9" s="122"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="101"/>
@@ -3803,7 +3813,7 @@
       <c r="D10" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="120"/>
@@ -3813,7 +3823,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="103"/>
-      <c r="K10" s="122"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="101"/>
@@ -3826,7 +3836,7 @@
       <c r="D11" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="43"/>
@@ -3836,9 +3846,9 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="103"/>
-      <c r="K11" s="122"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
+      <c r="K11" s="126"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
@@ -3849,14 +3859,14 @@
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
-      <c r="K12" s="122"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="121"/>
+      <c r="C15" s="125"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="93" t="s">
@@ -3890,7 +3900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="13.5" thickBot="1">
+    <row r="20" spans="2:3" ht="13.8" thickBot="1">
       <c r="B20" s="96" t="s">
         <v>30</v>
       </c>
@@ -3915,20 +3925,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" zoomScale="165" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4151,14 +4161,14 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E13" s="38" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="117" t="s">
@@ -4170,10 +4180,10 @@
       <c r="H13" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1">
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" thickBot="1">
       <c r="B14" s="51" t="s">
         <v>20</v>
       </c>
@@ -4290,19 +4300,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4326,7 +4336,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="18">
+    <row r="2" spans="1:20" ht="17.399999999999999">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>26</v>
@@ -4414,7 +4424,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="26.25" thickBot="1">
+    <row r="6" spans="1:20" ht="27" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="29" t="s">
         <v>71</v>
@@ -4443,7 +4453,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1">
+    <row r="7" spans="1:20" ht="13.8" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="109" t="s">
         <v>111</v>
@@ -4568,23 +4578,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="C4" zoomScale="145" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
+    <row r="2" spans="2:12" ht="17.399999999999999">
       <c r="B2" s="90" t="s">
         <v>96</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="39" thickBot="1">
+    <row r="6" spans="2:12" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -4683,7 +4693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="26.25" thickBot="1">
+    <row r="7" spans="2:12" ht="27" thickBot="1">
       <c r="B7" s="109" t="s">
         <v>111</v>
       </c>
@@ -4745,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.5" thickBot="1">
+    <row r="9" spans="2:12" ht="13.8" thickBot="1">
       <c r="B9" s="85" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_DOLNA_ODRA</v>
@@ -4781,7 +4791,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="13.5" thickBot="1">
+    <row r="10" spans="2:12" ht="13.8" thickBot="1">
       <c r="B10" t="str">
         <f>SEC_Processes!D12</f>
         <v>ELE_EX_WIND_TURBINE</v>
@@ -4801,7 +4811,7 @@
       <c r="F10">
         <v>1.345</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="122">
         <v>1</v>
       </c>
       <c r="H10" s="84">
@@ -4813,11 +4823,15 @@
       <c r="J10" s="89">
         <v>1</v>
       </c>
-      <c r="K10" s="125">
+      <c r="K10" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12">
+      <c r="B11" t="str">
+        <f>SEC_Processes!D13</f>
+        <v>ELE_EX_SOLAR_PV</v>
+      </c>
       <c r="C11" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar PV</v>
@@ -4849,26 +4863,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="E13" s="51" t="s">
+    <row r="15" spans="2:12">
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <f>F10*H10</f>
         <v>42.41592</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="127" t="s">
+    <row r="17" spans="5:6">
+      <c r="E17" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="F14">
-        <f>F13*I10</f>
+      <c r="F17">
+        <f>F16*I10</f>
         <v>13.997253600000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="E15" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,17 +4895,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
+    <row r="2" spans="2:11" ht="17.399999999999999">
       <c r="B2" s="90" t="s">
         <v>100</v>
       </c>
@@ -4957,7 +4971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="39" thickBot="1">
+    <row r="6" spans="2:11" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -5001,7 +5015,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1">
+    <row r="8" spans="2:11" ht="13.8" thickBot="1">
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
@@ -5013,7 +5027,7 @@
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
     </row>
-    <row r="10" spans="2:11" ht="18">
+    <row r="10" spans="2:11" ht="17.399999999999999">
       <c r="B10" s="90" t="s">
         <v>99</v>
       </c>
@@ -5043,15 +5057,15 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26.25" thickBot="1">
+    <row r="17" spans="2:5" ht="27" thickBot="1">
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="59" t="str">
@@ -5064,7 +5078,7 @@
       <c r="D18" s="82"/>
       <c r="E18" s="83"/>
     </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1">
+    <row r="19" spans="2:5" ht="13.8" thickBot="1">
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
       <c r="D19" s="86"/>
@@ -5083,14 +5097,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
@@ -5137,18 +5151,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39" thickBot="1">
+    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="59"/>
@@ -5178,7 +5192,7 @@
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+    <row r="11" spans="2:10" ht="13.8" thickBot="1">
       <c r="B11" s="65"/>
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
@@ -5194,12 +5208,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5347,15 +5358,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5379,17 +5401,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD204533-45A9-4C1D-87F0-ECCCC2834E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD2D550-AF55-4BE6-BE89-47F7A0D04803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -27,19 +27,6 @@
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2497,7 +2484,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2757,22 +2744,25 @@
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3135,7 +3125,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3614,26 +3604,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:11" ht="18.75" thickBot="1">
       <c r="B2" s="28" t="s">
         <v>44</v>
       </c>
@@ -3656,11 +3646,11 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="122" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="1:11" ht="17.45" customHeight="1">
       <c r="A4" s="101"/>
       <c r="B4" s="32" t="s">
         <v>0</v>
@@ -3673,7 +3663,7 @@
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
-      <c r="K4" s="126"/>
+      <c r="K4" s="122"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="101"/>
@@ -3702,9 +3692,9 @@
         <v>8</v>
       </c>
       <c r="J5" s="103"/>
-      <c r="K5" s="126"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
+      <c r="K5" s="122"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="101"/>
       <c r="B6" s="34" t="s">
         <v>36</v>
@@ -3731,7 +3721,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="103"/>
-      <c r="K6" s="126"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="101"/>
@@ -3754,7 +3744,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="103"/>
-      <c r="K7" s="126"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="101"/>
@@ -3777,7 +3767,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="103"/>
-      <c r="K8" s="126"/>
+      <c r="K8" s="122"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="101"/>
@@ -3790,7 +3780,7 @@
       <c r="D9" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="115" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="116"/>
@@ -3800,7 +3790,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="103"/>
-      <c r="K9" s="126"/>
+      <c r="K9" s="122"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="101"/>
@@ -3813,7 +3803,7 @@
       <c r="D10" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="119" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="120"/>
@@ -3823,7 +3813,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="103"/>
-      <c r="K10" s="126"/>
+      <c r="K10" s="122"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="101"/>
@@ -3836,7 +3826,7 @@
       <c r="D11" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="119" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="43"/>
@@ -3846,9 +3836,9 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="103"/>
-      <c r="K11" s="126"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.8" thickBot="1">
+      <c r="K11" s="122"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
@@ -3859,14 +3849,14 @@
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
-      <c r="K12" s="126"/>
+      <c r="K12" s="122"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="121"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="93" t="s">
@@ -3900,7 +3890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="13.8" thickBot="1">
+    <row r="20" spans="2:3" ht="13.5" thickBot="1">
       <c r="B20" s="96" t="s">
         <v>30</v>
       </c>
@@ -3925,20 +3915,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="165" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4161,14 +4151,14 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="130" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="117" t="s">
@@ -4180,10 +4170,10 @@
       <c r="H13" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" thickBot="1">
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" thickBot="1">
       <c r="B14" s="51" t="s">
         <v>20</v>
       </c>
@@ -4300,19 +4290,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="8" max="10" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4336,7 +4326,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="17.399999999999999">
+    <row r="2" spans="1:20" ht="18">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>26</v>
@@ -4424,7 +4414,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="27" thickBot="1">
+    <row r="6" spans="1:20" ht="26.25" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="29" t="s">
         <v>71</v>
@@ -4453,7 +4443,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="13.8" thickBot="1">
+    <row r="7" spans="1:20" ht="13.5" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="109" t="s">
         <v>111</v>
@@ -4578,23 +4568,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="145" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999">
+    <row r="2" spans="2:12" ht="18">
       <c r="B2" s="90" t="s">
         <v>96</v>
       </c>
@@ -4661,7 +4651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:12" ht="39" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -4693,7 +4683,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="27" thickBot="1">
+    <row r="7" spans="2:12" ht="26.25" thickBot="1">
       <c r="B7" s="109" t="s">
         <v>111</v>
       </c>
@@ -4755,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.8" thickBot="1">
+    <row r="9" spans="2:12" ht="13.5" thickBot="1">
       <c r="B9" s="85" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_DOLNA_ODRA</v>
@@ -4791,7 +4781,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="13.8" thickBot="1">
+    <row r="10" spans="2:12" ht="13.5" thickBot="1">
       <c r="B10" t="str">
         <f>SEC_Processes!D12</f>
         <v>ELE_EX_WIND_TURBINE</v>
@@ -4811,7 +4801,7 @@
       <c r="F10">
         <v>1.345</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="126">
         <v>1</v>
       </c>
       <c r="H10" s="84">
@@ -4823,15 +4813,11 @@
       <c r="J10" s="89">
         <v>1</v>
       </c>
-      <c r="K10" s="121">
+      <c r="K10" s="125">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" t="str">
-        <f>SEC_Processes!D13</f>
-        <v>ELE_EX_SOLAR_PV</v>
-      </c>
       <c r="C11" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar PV</v>
@@ -4863,26 +4849,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="2:12">
+      <c r="E13" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13">
+        <f>F10*H10</f>
+        <v>42.41592</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="E14" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14">
+        <f>F13*I10</f>
+        <v>13.997253600000001</v>
+      </c>
+    </row>
     <row r="15" spans="2:12">
       <c r="E15" s="110"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="E16" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16">
-        <f>F10*H10</f>
-        <v>42.41592</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17">
-        <f>F16*I10</f>
-        <v>13.997253600000001</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4895,17 +4881,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="11" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.399999999999999">
+    <row r="2" spans="2:11" ht="18">
       <c r="B2" s="90" t="s">
         <v>100</v>
       </c>
@@ -4971,7 +4957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:11" ht="39" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -5015,7 +5001,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="2:11" ht="13.8" thickBot="1">
+    <row r="8" spans="2:11" ht="13.5" thickBot="1">
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
       <c r="D8" s="86"/>
@@ -5027,7 +5013,7 @@
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
     </row>
-    <row r="10" spans="2:11" ht="17.399999999999999">
+    <row r="10" spans="2:11" ht="18">
       <c r="B10" s="90" t="s">
         <v>99</v>
       </c>
@@ -5057,15 +5043,15 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="27" thickBot="1">
+    <row r="17" spans="2:5" ht="26.25" thickBot="1">
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="59" t="str">
@@ -5078,7 +5064,7 @@
       <c r="D18" s="82"/>
       <c r="E18" s="83"/>
     </row>
-    <row r="19" spans="2:5" ht="13.8" thickBot="1">
+    <row r="19" spans="2:5" ht="13.5" thickBot="1">
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
       <c r="D19" s="86"/>
@@ -5097,14 +5083,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
@@ -5151,18 +5137,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:10" ht="39" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="59"/>
@@ -5192,7 +5178,7 @@
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
     </row>
-    <row r="11" spans="2:10" ht="13.8" thickBot="1">
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="65"/>
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
@@ -5208,9 +5194,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5358,26 +5347,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5401,9 +5379,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD2D550-AF55-4BE6-BE89-47F7A0D04803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D24CE-B2A5-4AA7-B215-15EAEC68A638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1249,6 +1249,9 @@
   </si>
   <si>
     <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2487,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2744,25 +2747,22 @@
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3604,8 +3604,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView zoomScale="107" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3646,7 +3646,7 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="126" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
-      <c r="K4" s="122"/>
+      <c r="K4" s="126"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="101"/>
@@ -3692,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="103"/>
-      <c r="K5" s="122"/>
+      <c r="K5" s="126"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="101"/>
@@ -3721,7 +3721,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="103"/>
-      <c r="K6" s="122"/>
+      <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="101"/>
@@ -3744,7 +3744,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="103"/>
-      <c r="K7" s="122"/>
+      <c r="K7" s="126"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="101"/>
@@ -3767,7 +3767,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="103"/>
-      <c r="K8" s="122"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="101"/>
@@ -3780,7 +3780,7 @@
       <c r="D9" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="116"/>
@@ -3790,7 +3790,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="103"/>
-      <c r="K9" s="122"/>
+      <c r="K9" s="126"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="101"/>
@@ -3803,7 +3803,7 @@
       <c r="D10" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="120"/>
@@ -3813,7 +3813,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="103"/>
-      <c r="K10" s="122"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="101"/>
@@ -3826,7 +3826,7 @@
       <c r="D11" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="108" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="43"/>
@@ -3836,7 +3836,7 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="103"/>
-      <c r="K11" s="122"/>
+      <c r="K11" s="126"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="104"/>
@@ -3849,14 +3849,14 @@
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
-      <c r="K12" s="122"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="121"/>
+      <c r="C15" s="125"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="93" t="s">
@@ -3913,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4030,7 +4030,7 @@
         <v>107</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -4151,14 +4151,14 @@
       <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E13" s="38" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="117" t="s">
@@ -4170,8 +4170,8 @@
       <c r="H13" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1">
       <c r="B14" s="51" t="s">
@@ -4193,87 +4193,87 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="51" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C35" s="51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="51" t="s">
+    <row r="36" spans="2:5">
+      <c r="B36" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C36" s="51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="51" t="s">
+    <row r="37" spans="2:5">
+      <c r="B37" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C37" s="51" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="51" t="s">
+    <row r="38" spans="2:5">
+      <c r="B38" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C38" s="51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="51" t="s">
+    <row r="39" spans="2:5">
+      <c r="B39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C39" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E39" s="51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="51" t="s">
+    <row r="40" spans="2:5">
+      <c r="B40" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C40" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E40" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="51" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C41" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E41" s="51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="51" t="s">
+    <row r="42" spans="2:5">
+      <c r="B42" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C42" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E42" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="51" t="s">
+    <row r="43" spans="2:5">
+      <c r="B43" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C43" s="51" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4290,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="C4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4568,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="C4" zoomScale="145" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4801,7 +4801,7 @@
       <c r="F10">
         <v>1.345</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="122">
         <v>1</v>
       </c>
       <c r="H10" s="84">
@@ -4813,11 +4813,15 @@
       <c r="J10" s="89">
         <v>1</v>
       </c>
-      <c r="K10" s="125">
+      <c r="K10" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12">
+      <c r="B11" t="str">
+        <f>SEC_Processes!D13</f>
+        <v>ELE_EX_SOLAR_PV</v>
+      </c>
       <c r="C11" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar PV</v>
@@ -4849,26 +4853,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="E13" s="51" t="s">
+    <row r="15" spans="2:12">
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <f>F10*H10</f>
         <v>42.41592</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="127" t="s">
+    <row r="17" spans="5:6">
+      <c r="E17" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="F14">
-        <f>F13*I10</f>
+      <c r="F17">
+        <f>F16*I10</f>
         <v>13.997253600000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="E15" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,7 +4885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5047,11 +5051,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="59" t="str">
@@ -5144,11 +5148,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="59"/>
@@ -5194,15 +5198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5346,6 +5341,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5353,14 +5357,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5374,6 +5370,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D24CE-B2A5-4AA7-B215-15EAEC68A638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030313E-95B7-4106-949A-7933AD82A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="159">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1252,6 +1252,39 @@
   </si>
   <si>
     <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>~FI_T:</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2520,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2762,6 +2795,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3604,7 +3652,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
@@ -3915,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4290,7 +4338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4570,7 +4618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="145" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:F17"/>
     </sheetView>
   </sheetViews>
@@ -4883,10 +4931,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B32" sqref="B31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5074,12 +5122,138 @@
       <c r="D19" s="86"/>
       <c r="E19" s="87"/>
     </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="59" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="83">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="131">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="59" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="83">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C28" s="132" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="131">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="59" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="83">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C30" s="132" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="131">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="62" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C31" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="131">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="133" t="str">
+        <f>SEC_Comm!$C$8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C32" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="135">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="122">
+        <f>SUM(D25:D32)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5198,6 +5372,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5341,15 +5524,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5357,6 +5531,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5370,14 +5552,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
